--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/RHODE_ISLAND_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/RHODE_ISLAND_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C4">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C10">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -680,12 +680,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C23">
@@ -711,7 +711,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C25">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C30">
@@ -815,7 +815,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C33">
@@ -859,7 +859,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C36">
@@ -885,7 +885,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C38">
@@ -942,7 +942,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C42">
@@ -955,7 +955,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C43">
@@ -981,7 +981,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C45">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C46">
@@ -1020,7 +1020,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C48">
@@ -1033,7 +1033,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C49">
@@ -1098,7 +1098,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C54">
@@ -1194,7 +1194,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C61">
@@ -1220,7 +1220,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C63">
@@ -1233,7 +1233,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C64">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C65">
@@ -1259,7 +1259,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C66">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C67">
@@ -1337,7 +1337,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C72">
@@ -1848,7 +1848,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C109">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C118">
@@ -2317,7 +2317,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C142">
@@ -2356,7 +2356,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C145">
@@ -2421,7 +2421,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C150">
@@ -2434,7 +2434,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C151">
@@ -2608,76 +2608,6 @@
       </c>
       <c r="D163">
         <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/RHODE_ISLAND_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/RHODE_ISLAND_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Teotihuacán</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tepotzotlán</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>León</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Mineral De La Reforma</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Omitlán De Juárez</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Yahualica</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1633,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Lorenzo Cacaotepec</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Santiago Yucuyachi</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1768,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Axutla</t>
@@ -1781,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1794,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1807,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -1820,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -1937,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1950,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2056,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2087,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2131,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -2144,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2175,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -2188,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -2201,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -2214,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2227,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2258,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -2271,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2284,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2315,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -2328,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2341,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2354,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2367,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2380,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -2393,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2406,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2419,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Ozuluama De Mascareñas</t>
@@ -2432,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2445,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -2458,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -2471,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2484,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2497,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2510,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2541,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2572,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2585,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
